--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Serpinc1-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Serpinc1-Lrp1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.081081666666667</v>
+        <v>4.877851</v>
       </c>
       <c r="H2">
-        <v>12.243245</v>
+        <v>14.633553</v>
       </c>
       <c r="I2">
-        <v>0.1646100170538642</v>
+        <v>0.1938694113040554</v>
       </c>
       <c r="J2">
-        <v>0.1646100170538642</v>
+        <v>0.1938694113040554</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.749051</v>
+        <v>9.172748</v>
       </c>
       <c r="N2">
-        <v>5.247153</v>
+        <v>27.518244</v>
       </c>
       <c r="O2">
-        <v>0.003644723415756577</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="P2">
-        <v>0.003644723415756578</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="Q2">
-        <v>7.138019970165</v>
+        <v>44.743298004548</v>
       </c>
       <c r="R2">
-        <v>64.242179731485</v>
+        <v>402.689682040932</v>
       </c>
       <c r="S2">
-        <v>0.0005999579836243083</v>
+        <v>0.002803015040214966</v>
       </c>
       <c r="T2">
-        <v>0.0005999579836243086</v>
+        <v>0.002803015040214966</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.081081666666667</v>
+        <v>4.877851</v>
       </c>
       <c r="H3">
-        <v>12.243245</v>
+        <v>14.633553</v>
       </c>
       <c r="I3">
-        <v>0.1646100170538642</v>
+        <v>0.1938694113040554</v>
       </c>
       <c r="J3">
-        <v>0.1646100170538642</v>
+        <v>0.1938694113040554</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>429.10666</v>
       </c>
       <c r="O3">
-        <v>0.2980616520156924</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="P3">
-        <v>0.2980616520156925</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="Q3">
-        <v>583.739774390189</v>
+        <v>697.7061168625534</v>
       </c>
       <c r="R3">
-        <v>5253.657969511701</v>
+        <v>6279.35505176298</v>
       </c>
       <c r="S3">
-        <v>0.04906393362140607</v>
+        <v>0.04370890896368278</v>
       </c>
       <c r="T3">
-        <v>0.04906393362140608</v>
+        <v>0.04370890896368277</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.081081666666667</v>
+        <v>4.877851</v>
       </c>
       <c r="H4">
-        <v>12.243245</v>
+        <v>14.633553</v>
       </c>
       <c r="I4">
-        <v>0.1646100170538642</v>
+        <v>0.1938694113040554</v>
       </c>
       <c r="J4">
-        <v>0.1646100170538642</v>
+        <v>0.1938694113040554</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>132.804812</v>
+        <v>169.2367096666667</v>
       </c>
       <c r="N4">
-        <v>398.414436</v>
+        <v>507.7101290000001</v>
       </c>
       <c r="O4">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="P4">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="Q4">
-        <v>541.9872834983133</v>
+        <v>825.5114534842597</v>
       </c>
       <c r="R4">
-        <v>4877.88555148482</v>
+        <v>7429.603081358337</v>
       </c>
       <c r="S4">
-        <v>0.04555459344703235</v>
+        <v>0.0517154774721992</v>
       </c>
       <c r="T4">
-        <v>0.04555459344703235</v>
+        <v>0.05171547747219919</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.081081666666667</v>
+        <v>4.877851</v>
       </c>
       <c r="H5">
-        <v>12.243245</v>
+        <v>14.633553</v>
       </c>
       <c r="I5">
-        <v>0.1646100170538642</v>
+        <v>0.1938694113040554</v>
       </c>
       <c r="J5">
-        <v>0.1646100170538642</v>
+        <v>0.1938694113040554</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>23.00271466666667</v>
+        <v>16.15031566666667</v>
       </c>
       <c r="N5">
-        <v>69.008144</v>
+        <v>48.450947</v>
       </c>
       <c r="O5">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943506</v>
       </c>
       <c r="P5">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943505</v>
       </c>
       <c r="Q5">
-        <v>93.87595710969778</v>
+        <v>78.77883342496567</v>
       </c>
       <c r="R5">
-        <v>844.88361398728</v>
+        <v>709.0095008246909</v>
       </c>
       <c r="S5">
-        <v>0.007890371583961039</v>
+        <v>0.004935225269230776</v>
       </c>
       <c r="T5">
-        <v>0.007890371583961039</v>
+        <v>0.004935225269230775</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.081081666666667</v>
+        <v>4.877851</v>
       </c>
       <c r="H6">
-        <v>12.243245</v>
+        <v>14.633553</v>
       </c>
       <c r="I6">
-        <v>0.1646100170538642</v>
+        <v>0.1938694113040554</v>
       </c>
       <c r="J6">
-        <v>0.1646100170538642</v>
+        <v>0.1938694113040554</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>53.58648166666666</v>
+        <v>54.744643</v>
       </c>
       <c r="N6">
-        <v>160.759445</v>
+        <v>164.233929</v>
       </c>
       <c r="O6">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="P6">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="Q6">
-        <v>218.6908079110028</v>
+        <v>267.036211602193</v>
       </c>
       <c r="R6">
-        <v>1968.217271199025</v>
+        <v>2403.325904419737</v>
       </c>
       <c r="S6">
-        <v>0.01838118927936024</v>
+        <v>0.01672890803281623</v>
       </c>
       <c r="T6">
-        <v>0.01838118927936024</v>
+        <v>0.01672890803281623</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.081081666666667</v>
+        <v>4.877851</v>
       </c>
       <c r="H7">
-        <v>12.243245</v>
+        <v>14.633553</v>
       </c>
       <c r="I7">
-        <v>0.1646100170538642</v>
+        <v>0.1938694113040554</v>
       </c>
       <c r="J7">
-        <v>0.1646100170538642</v>
+        <v>0.1938694113040554</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>125.707184</v>
+        <v>242.0894676666667</v>
       </c>
       <c r="N7">
-        <v>377.1215520000001</v>
+        <v>726.268403</v>
       </c>
       <c r="O7">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="P7">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="Q7">
-        <v>513.0212839906935</v>
+        <v>1180.876351947318</v>
       </c>
       <c r="R7">
-        <v>4617.191555916241</v>
+        <v>10627.88716752586</v>
       </c>
       <c r="S7">
-        <v>0.04311997113848021</v>
+        <v>0.07397787652591147</v>
       </c>
       <c r="T7">
-        <v>0.04311997113848021</v>
+        <v>0.07397787652591147</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>11.286307</v>
       </c>
       <c r="I8">
-        <v>0.1517440178437291</v>
+        <v>0.1495241582059285</v>
       </c>
       <c r="J8">
-        <v>0.1517440178437291</v>
+        <v>0.1495241582059285</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.749051</v>
+        <v>9.172748</v>
       </c>
       <c r="N8">
-        <v>5.247153</v>
+        <v>27.518244</v>
       </c>
       <c r="O8">
-        <v>0.003644723415756577</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="P8">
-        <v>0.003644723415756578</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="Q8">
-        <v>6.580108848219</v>
+        <v>34.50881665387867</v>
       </c>
       <c r="R8">
-        <v>59.22097963397101</v>
+        <v>310.579349884908</v>
       </c>
       <c r="S8">
-        <v>0.0005530649750360233</v>
+        <v>0.002161859684348938</v>
       </c>
       <c r="T8">
-        <v>0.0005530649750360234</v>
+        <v>0.002161859684348938</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>11.286307</v>
       </c>
       <c r="I9">
-        <v>0.1517440178437291</v>
+        <v>0.1495241582059285</v>
       </c>
       <c r="J9">
-        <v>0.1517440178437291</v>
+        <v>0.1495241582059285</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>429.10666</v>
       </c>
       <c r="O9">
-        <v>0.2980616520156924</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="P9">
-        <v>0.2980616520156925</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="Q9">
         <v>538.1143889449579</v>
@@ -1013,10 +1013,10 @@
         <v>4843.029500504621</v>
       </c>
       <c r="S9">
-        <v>0.0452290726420006</v>
+        <v>0.03371103143571324</v>
       </c>
       <c r="T9">
-        <v>0.04522907264200061</v>
+        <v>0.03371103143571323</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>11.286307</v>
       </c>
       <c r="I10">
-        <v>0.1517440178437291</v>
+        <v>0.1495241582059285</v>
       </c>
       <c r="J10">
-        <v>0.1517440178437291</v>
+        <v>0.1495241582059285</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>132.804812</v>
+        <v>169.2367096666667</v>
       </c>
       <c r="N10">
-        <v>398.414436</v>
+        <v>507.7101290000001</v>
       </c>
       <c r="O10">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="P10">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="Q10">
-        <v>499.6252931030947</v>
+        <v>636.6858203226226</v>
       </c>
       <c r="R10">
-        <v>4496.627637927852</v>
+        <v>5730.172382903604</v>
       </c>
       <c r="S10">
-        <v>0.04199402420709503</v>
+        <v>0.03988619547165505</v>
       </c>
       <c r="T10">
-        <v>0.04199402420709503</v>
+        <v>0.03988619547165505</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>11.286307</v>
       </c>
       <c r="I11">
-        <v>0.1517440178437291</v>
+        <v>0.1495241582059285</v>
       </c>
       <c r="J11">
-        <v>0.1517440178437291</v>
+        <v>0.1495241582059285</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>23.00271466666667</v>
+        <v>16.15031566666667</v>
       </c>
       <c r="N11">
-        <v>69.008144</v>
+        <v>48.450947</v>
       </c>
       <c r="O11">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943506</v>
       </c>
       <c r="P11">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943505</v>
       </c>
       <c r="Q11">
-        <v>86.53856652046755</v>
+        <v>60.75914025363656</v>
       </c>
       <c r="R11">
-        <v>778.847098684208</v>
+        <v>546.8322622827291</v>
       </c>
       <c r="S11">
-        <v>0.007273656292973028</v>
+        <v>0.003806352941264244</v>
       </c>
       <c r="T11">
-        <v>0.007273656292973029</v>
+        <v>0.003806352941264243</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>11.286307</v>
       </c>
       <c r="I12">
-        <v>0.1517440178437291</v>
+        <v>0.1495241582059285</v>
       </c>
       <c r="J12">
-        <v>0.1517440178437291</v>
+        <v>0.1495241582059285</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>53.58648166666666</v>
+        <v>54.744643</v>
       </c>
       <c r="N12">
-        <v>160.759445</v>
+        <v>164.233929</v>
       </c>
       <c r="O12">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="P12">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="Q12">
-        <v>201.5978277132905</v>
+        <v>205.9549491678004</v>
       </c>
       <c r="R12">
-        <v>1814.380449419615</v>
+        <v>1853.594542510203</v>
       </c>
       <c r="S12">
-        <v>0.01694450656112562</v>
+        <v>0.01290237523540114</v>
       </c>
       <c r="T12">
-        <v>0.01694450656112562</v>
+        <v>0.01290237523540114</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>11.286307</v>
       </c>
       <c r="I13">
-        <v>0.1517440178437291</v>
+        <v>0.1495241582059285</v>
       </c>
       <c r="J13">
-        <v>0.1517440178437291</v>
+        <v>0.1495241582059285</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>125.707184</v>
+        <v>242.0894676666667</v>
       </c>
       <c r="N13">
-        <v>377.1215520000001</v>
+        <v>726.268403</v>
       </c>
       <c r="O13">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="P13">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="Q13">
-        <v>472.9232902431628</v>
+        <v>910.7653511841913</v>
       </c>
       <c r="R13">
-        <v>4256.309612188465</v>
+        <v>8196.888160657722</v>
       </c>
       <c r="S13">
-        <v>0.03974969316549878</v>
+        <v>0.05705634343754592</v>
       </c>
       <c r="T13">
-        <v>0.03974969316549878</v>
+        <v>0.05705634343754592</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.946064666666667</v>
+        <v>3.613104333333334</v>
       </c>
       <c r="H14">
-        <v>8.838194</v>
+        <v>10.839313</v>
       </c>
       <c r="I14">
-        <v>0.1188292209349205</v>
+        <v>0.1436022564205969</v>
       </c>
       <c r="J14">
-        <v>0.1188292209349205</v>
+        <v>0.1436022564205969</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.749051</v>
+        <v>9.172748</v>
       </c>
       <c r="N14">
-        <v>5.247153</v>
+        <v>27.518244</v>
       </c>
       <c r="O14">
-        <v>0.003644723415756577</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="P14">
-        <v>0.003644723415756578</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="Q14">
-        <v>5.152817351297999</v>
+        <v>33.14209554737467</v>
       </c>
       <c r="R14">
-        <v>46.375356161682</v>
+        <v>298.278859926372</v>
       </c>
       <c r="S14">
-        <v>0.0004330996440176162</v>
+        <v>0.002076239267701946</v>
       </c>
       <c r="T14">
-        <v>0.0004330996440176164</v>
+        <v>0.002076239267701945</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.946064666666667</v>
+        <v>3.613104333333334</v>
       </c>
       <c r="H15">
-        <v>8.838194</v>
+        <v>10.839313</v>
       </c>
       <c r="I15">
-        <v>0.1188292209349205</v>
+        <v>0.1436022564205969</v>
       </c>
       <c r="J15">
-        <v>0.1188292209349205</v>
+        <v>0.1436022564205969</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>429.10666</v>
       </c>
       <c r="O15">
-        <v>0.2980616520156924</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="P15">
-        <v>0.2980616520156925</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="Q15">
-        <v>421.3919897524489</v>
+        <v>516.8023775693979</v>
       </c>
       <c r="R15">
-        <v>3792.52790777204</v>
+        <v>4651.22139812458</v>
       </c>
       <c r="S15">
-        <v>0.03541843389960009</v>
+        <v>0.03237590659943374</v>
       </c>
       <c r="T15">
-        <v>0.0354184338996001</v>
+        <v>0.03237590659943373</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.946064666666667</v>
+        <v>3.613104333333334</v>
       </c>
       <c r="H16">
-        <v>8.838194</v>
+        <v>10.839313</v>
       </c>
       <c r="I16">
-        <v>0.1188292209349205</v>
+        <v>0.1436022564205969</v>
       </c>
       <c r="J16">
-        <v>0.1188292209349205</v>
+        <v>0.1436022564205969</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>132.804812</v>
+        <v>169.2367096666667</v>
       </c>
       <c r="N16">
-        <v>398.414436</v>
+        <v>507.7101290000001</v>
       </c>
       <c r="O16">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="P16">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="Q16">
-        <v>391.2515641965093</v>
+        <v>611.4698890557087</v>
       </c>
       <c r="R16">
-        <v>3521.264077768584</v>
+        <v>5503.229001501378</v>
       </c>
       <c r="S16">
-        <v>0.03288509986331242</v>
+        <v>0.03830650336699611</v>
       </c>
       <c r="T16">
-        <v>0.03288509986331242</v>
+        <v>0.0383065033669961</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.946064666666667</v>
+        <v>3.613104333333334</v>
       </c>
       <c r="H17">
-        <v>8.838194</v>
+        <v>10.839313</v>
       </c>
       <c r="I17">
-        <v>0.1188292209349205</v>
+        <v>0.1436022564205969</v>
       </c>
       <c r="J17">
-        <v>0.1188292209349205</v>
+        <v>0.1436022564205969</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>23.00271466666667</v>
+        <v>16.15031566666667</v>
       </c>
       <c r="N17">
-        <v>69.008144</v>
+        <v>48.450947</v>
       </c>
       <c r="O17">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943506</v>
       </c>
       <c r="P17">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943505</v>
       </c>
       <c r="Q17">
-        <v>67.76748491688177</v>
+        <v>58.35277551993457</v>
       </c>
       <c r="R17">
-        <v>609.907364251936</v>
+        <v>525.174979679411</v>
       </c>
       <c r="S17">
-        <v>0.005695927410677066</v>
+        <v>0.00365560239667712</v>
       </c>
       <c r="T17">
-        <v>0.005695927410677067</v>
+        <v>0.003655602396677119</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.946064666666667</v>
+        <v>3.613104333333334</v>
       </c>
       <c r="H18">
-        <v>8.838194</v>
+        <v>10.839313</v>
       </c>
       <c r="I18">
-        <v>0.1188292209349205</v>
+        <v>0.1436022564205969</v>
       </c>
       <c r="J18">
-        <v>0.1188292209349205</v>
+        <v>0.1436022564205969</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>53.58648166666666</v>
+        <v>54.744643</v>
       </c>
       <c r="N18">
-        <v>160.759445</v>
+        <v>164.233929</v>
       </c>
       <c r="O18">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="P18">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="Q18">
-        <v>157.8692402491478</v>
+        <v>197.7981068500864</v>
       </c>
       <c r="R18">
-        <v>1420.82316224233</v>
+        <v>1780.182961650777</v>
       </c>
       <c r="S18">
-        <v>0.01326907341980872</v>
+        <v>0.01239137687996274</v>
       </c>
       <c r="T18">
-        <v>0.01326907341980872</v>
+        <v>0.01239137687996274</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.946064666666667</v>
+        <v>3.613104333333334</v>
       </c>
       <c r="H19">
-        <v>8.838194</v>
+        <v>10.839313</v>
       </c>
       <c r="I19">
-        <v>0.1188292209349205</v>
+        <v>0.1436022564205969</v>
       </c>
       <c r="J19">
-        <v>0.1188292209349205</v>
+        <v>0.1436022564205969</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>125.707184</v>
+        <v>242.0894676666667</v>
       </c>
       <c r="N19">
-        <v>377.1215520000001</v>
+        <v>726.268403</v>
       </c>
       <c r="O19">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="P19">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="Q19">
-        <v>370.3414931285654</v>
+        <v>874.6945046807933</v>
       </c>
       <c r="R19">
-        <v>3333.073438157088</v>
+        <v>7872.25054212714</v>
       </c>
       <c r="S19">
-        <v>0.03112758669750453</v>
+        <v>0.05479662790982526</v>
       </c>
       <c r="T19">
-        <v>0.03112758669750453</v>
+        <v>0.05479662790982525</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3.92741</v>
+        <v>2.466867666666666</v>
       </c>
       <c r="H20">
-        <v>11.78223</v>
+        <v>7.400602999999999</v>
       </c>
       <c r="I20">
-        <v>0.1584116858914896</v>
+        <v>0.09804526261701627</v>
       </c>
       <c r="J20">
-        <v>0.1584116858914896</v>
+        <v>0.09804526261701627</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.749051</v>
+        <v>9.172748</v>
       </c>
       <c r="N20">
-        <v>5.247153</v>
+        <v>27.518244</v>
       </c>
       <c r="O20">
-        <v>0.003644723415756577</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="P20">
-        <v>0.003644723415756578</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="Q20">
-        <v>6.869240387909999</v>
+        <v>22.62795545568133</v>
       </c>
       <c r="R20">
-        <v>61.82316349118999</v>
+        <v>203.651599101132</v>
       </c>
       <c r="S20">
-        <v>0.0005773667808981879</v>
+        <v>0.001417564245379095</v>
       </c>
       <c r="T20">
-        <v>0.000577366780898188</v>
+        <v>0.001417564245379095</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>3.92741</v>
+        <v>2.466867666666666</v>
       </c>
       <c r="H21">
-        <v>11.78223</v>
+        <v>7.400602999999999</v>
       </c>
       <c r="I21">
-        <v>0.1584116858914896</v>
+        <v>0.09804526261701627</v>
       </c>
       <c r="J21">
-        <v>0.1584116858914896</v>
+        <v>0.09804526261701627</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>429.10666</v>
       </c>
       <c r="O21">
-        <v>0.2980616520156924</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="P21">
-        <v>0.2980616520156925</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="Q21">
-        <v>561.7592625168667</v>
+        <v>352.8497817017756</v>
       </c>
       <c r="R21">
-        <v>5055.8333626518</v>
+        <v>3175.64803531598</v>
       </c>
       <c r="S21">
-        <v>0.04721644879540834</v>
+        <v>0.02210483556545411</v>
       </c>
       <c r="T21">
-        <v>0.04721644879540834</v>
+        <v>0.0221048355654541</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>3.92741</v>
+        <v>2.466867666666666</v>
       </c>
       <c r="H22">
-        <v>11.78223</v>
+        <v>7.400602999999999</v>
       </c>
       <c r="I22">
-        <v>0.1584116858914896</v>
+        <v>0.09804526261701627</v>
       </c>
       <c r="J22">
-        <v>0.1584116858914896</v>
+        <v>0.09804526261701627</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>132.804812</v>
+        <v>169.2367096666667</v>
       </c>
       <c r="N22">
-        <v>398.414436</v>
+        <v>507.7101290000001</v>
       </c>
       <c r="O22">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="P22">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="Q22">
-        <v>521.57894669692</v>
+        <v>417.4845670897541</v>
       </c>
       <c r="R22">
-        <v>4694.21052027228</v>
+        <v>3757.361103807787</v>
       </c>
       <c r="S22">
-        <v>0.0438392515668377</v>
+        <v>0.02615398445799115</v>
       </c>
       <c r="T22">
-        <v>0.0438392515668377</v>
+        <v>0.02615398445799115</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>3.92741</v>
+        <v>2.466867666666666</v>
       </c>
       <c r="H23">
-        <v>11.78223</v>
+        <v>7.400602999999999</v>
       </c>
       <c r="I23">
-        <v>0.1584116858914896</v>
+        <v>0.09804526261701627</v>
       </c>
       <c r="J23">
-        <v>0.1584116858914896</v>
+        <v>0.09804526261701627</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>23.00271466666667</v>
+        <v>16.15031566666667</v>
       </c>
       <c r="N23">
-        <v>69.008144</v>
+        <v>48.450947</v>
       </c>
       <c r="O23">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943506</v>
       </c>
       <c r="P23">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943505</v>
       </c>
       <c r="Q23">
-        <v>90.34109160901332</v>
+        <v>39.84069152456011</v>
       </c>
       <c r="R23">
-        <v>813.0698244811199</v>
+        <v>358.566223721041</v>
       </c>
       <c r="S23">
-        <v>0.007593262471484745</v>
+        <v>0.002495883462693243</v>
       </c>
       <c r="T23">
-        <v>0.007593262471484747</v>
+        <v>0.002495883462693242</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>3.92741</v>
+        <v>2.466867666666666</v>
       </c>
       <c r="H24">
-        <v>11.78223</v>
+        <v>7.400602999999999</v>
       </c>
       <c r="I24">
-        <v>0.1584116858914896</v>
+        <v>0.09804526261701627</v>
       </c>
       <c r="J24">
-        <v>0.1584116858914896</v>
+        <v>0.09804526261701627</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>53.58648166666666</v>
+        <v>54.744643</v>
       </c>
       <c r="N24">
-        <v>160.759445</v>
+        <v>164.233929</v>
       </c>
       <c r="O24">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="P24">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="Q24">
-        <v>210.4560839624833</v>
+        <v>135.0477897399097</v>
       </c>
       <c r="R24">
-        <v>1894.10475566235</v>
+        <v>1215.430107659187</v>
       </c>
       <c r="S24">
-        <v>0.01768905218861148</v>
+        <v>0.008460283498777355</v>
       </c>
       <c r="T24">
-        <v>0.01768905218861148</v>
+        <v>0.008460283498777355</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>3.92741</v>
+        <v>2.466867666666666</v>
       </c>
       <c r="H25">
-        <v>11.78223</v>
+        <v>7.400602999999999</v>
       </c>
       <c r="I25">
-        <v>0.1584116858914896</v>
+        <v>0.09804526261701627</v>
       </c>
       <c r="J25">
-        <v>0.1584116858914896</v>
+        <v>0.09804526261701627</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>125.707184</v>
+        <v>242.0894676666667</v>
       </c>
       <c r="N25">
-        <v>377.1215520000001</v>
+        <v>726.268403</v>
       </c>
       <c r="O25">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="P25">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="Q25">
-        <v>493.70365151344</v>
+        <v>597.2026802274454</v>
       </c>
       <c r="R25">
-        <v>4443.33286362096</v>
+        <v>5374.824122047009</v>
       </c>
       <c r="S25">
-        <v>0.04149630408824911</v>
+        <v>0.03741271138672132</v>
       </c>
       <c r="T25">
-        <v>0.04149630408824911</v>
+        <v>0.03741271138672132</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>7.220197666666667</v>
+        <v>8.538873666666666</v>
       </c>
       <c r="H26">
-        <v>21.660593</v>
+        <v>25.616621</v>
       </c>
       <c r="I26">
-        <v>0.2912259440309176</v>
+        <v>0.3393761742530405</v>
       </c>
       <c r="J26">
-        <v>0.2912259440309176</v>
+        <v>0.3393761742530405</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.749051</v>
+        <v>9.172748</v>
       </c>
       <c r="N26">
-        <v>5.247153</v>
+        <v>27.518244</v>
       </c>
       <c r="O26">
-        <v>0.003644723415756577</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="P26">
-        <v>0.003644723415756578</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="Q26">
-        <v>12.628493949081</v>
+        <v>78.32493634816933</v>
       </c>
       <c r="R26">
-        <v>113.656445541729</v>
+        <v>704.924427133524</v>
       </c>
       <c r="S26">
-        <v>0.0010614380174853</v>
+        <v>0.004906790165210496</v>
       </c>
       <c r="T26">
-        <v>0.0010614380174853</v>
+        <v>0.004906790165210495</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>7.220197666666667</v>
+        <v>8.538873666666666</v>
       </c>
       <c r="H27">
-        <v>21.660593</v>
+        <v>25.616621</v>
       </c>
       <c r="I27">
-        <v>0.2912259440309176</v>
+        <v>0.3393761742530405</v>
       </c>
       <c r="J27">
-        <v>0.2912259440309176</v>
+        <v>0.3393761742530405</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>429.10666</v>
       </c>
       <c r="O27">
-        <v>0.2980616520156924</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="P27">
-        <v>0.2980616520156925</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="Q27">
-        <v>1032.744968427709</v>
+        <v>1221.362519755095</v>
       </c>
       <c r="R27">
-        <v>9294.704715849381</v>
+        <v>10992.26267779586</v>
       </c>
       <c r="S27">
-        <v>0.08680328598768486</v>
+        <v>0.07651419687660027</v>
       </c>
       <c r="T27">
-        <v>0.08680328598768487</v>
+        <v>0.07651419687660026</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>7.220197666666667</v>
+        <v>8.538873666666666</v>
       </c>
       <c r="H28">
-        <v>21.660593</v>
+        <v>25.616621</v>
       </c>
       <c r="I28">
-        <v>0.2912259440309176</v>
+        <v>0.3393761742530405</v>
       </c>
       <c r="J28">
-        <v>0.2912259440309176</v>
+        <v>0.3393761742530405</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>132.804812</v>
+        <v>169.2367096666667</v>
       </c>
       <c r="N28">
-        <v>398.414436</v>
+        <v>507.7101290000001</v>
       </c>
       <c r="O28">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="P28">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="Q28">
-        <v>958.8769937245053</v>
+        <v>1445.090883606012</v>
       </c>
       <c r="R28">
-        <v>8629.892943520548</v>
+        <v>13005.81795245411</v>
       </c>
       <c r="S28">
-        <v>0.08059460608169113</v>
+        <v>0.09053001593251925</v>
       </c>
       <c r="T28">
-        <v>0.08059460608169113</v>
+        <v>0.09053001593251925</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>7.220197666666667</v>
+        <v>8.538873666666666</v>
       </c>
       <c r="H29">
-        <v>21.660593</v>
+        <v>25.616621</v>
       </c>
       <c r="I29">
-        <v>0.2912259440309176</v>
+        <v>0.3393761742530405</v>
       </c>
       <c r="J29">
-        <v>0.2912259440309176</v>
+        <v>0.3393761742530405</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>23.00271466666667</v>
+        <v>16.15031566666667</v>
       </c>
       <c r="N29">
-        <v>69.008144</v>
+        <v>48.450947</v>
       </c>
       <c r="O29">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943506</v>
       </c>
       <c r="P29">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943505</v>
       </c>
       <c r="Q29">
-        <v>166.0841467632658</v>
+        <v>137.9055051544541</v>
       </c>
       <c r="R29">
-        <v>1494.757320869392</v>
+        <v>1241.149546390087</v>
       </c>
       <c r="S29">
-        <v>0.01395954483463701</v>
+        <v>0.008639309624361749</v>
       </c>
       <c r="T29">
-        <v>0.01395954483463701</v>
+        <v>0.008639309624361748</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>7.220197666666667</v>
+        <v>8.538873666666666</v>
       </c>
       <c r="H30">
-        <v>21.660593</v>
+        <v>25.616621</v>
       </c>
       <c r="I30">
-        <v>0.2912259440309176</v>
+        <v>0.3393761742530405</v>
       </c>
       <c r="J30">
-        <v>0.2912259440309176</v>
+        <v>0.3393761742530405</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>53.58648166666666</v>
+        <v>54.744643</v>
       </c>
       <c r="N30">
-        <v>160.759445</v>
+        <v>164.233929</v>
       </c>
       <c r="O30">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="P30">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="Q30">
-        <v>386.9049898945427</v>
+        <v>467.4575905037676</v>
       </c>
       <c r="R30">
-        <v>3482.144909050885</v>
+        <v>4207.118314533909</v>
       </c>
       <c r="S30">
-        <v>0.0325197657840046</v>
+        <v>0.02928462396114661</v>
       </c>
       <c r="T30">
-        <v>0.0325197657840046</v>
+        <v>0.02928462396114661</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>7.220197666666667</v>
+        <v>8.538873666666666</v>
       </c>
       <c r="H31">
-        <v>21.660593</v>
+        <v>25.616621</v>
       </c>
       <c r="I31">
-        <v>0.2912259440309176</v>
+        <v>0.3393761742530405</v>
       </c>
       <c r="J31">
-        <v>0.2912259440309176</v>
+        <v>0.3393761742530405</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>125.707184</v>
+        <v>242.0894676666667</v>
       </c>
       <c r="N31">
-        <v>377.1215520000001</v>
+        <v>726.268403</v>
       </c>
       <c r="O31">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="P31">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="Q31">
-        <v>907.6307166000375</v>
+        <v>2067.171380436251</v>
       </c>
       <c r="R31">
-        <v>8168.676449400337</v>
+        <v>18604.54242392626</v>
       </c>
       <c r="S31">
-        <v>0.07628730332541464</v>
+        <v>0.1295012376932021</v>
       </c>
       <c r="T31">
-        <v>0.07628730332541464</v>
+        <v>0.1295012376932021</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>2.855569666666666</v>
+        <v>1.901699333333333</v>
       </c>
       <c r="H32">
-        <v>8.566708999999999</v>
+        <v>5.705098</v>
       </c>
       <c r="I32">
-        <v>0.115179114245079</v>
+        <v>0.07558273719936258</v>
       </c>
       <c r="J32">
-        <v>0.115179114245079</v>
+        <v>0.07558273719936257</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>1.749051</v>
+        <v>9.172748</v>
       </c>
       <c r="N32">
-        <v>5.247153</v>
+        <v>27.518244</v>
       </c>
       <c r="O32">
-        <v>0.003644723415756577</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="P32">
-        <v>0.003644723415756578</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="Q32">
-        <v>4.994536981052999</v>
+        <v>17.44380875643467</v>
       </c>
       <c r="R32">
-        <v>44.95083282947699</v>
+        <v>156.994278807912</v>
       </c>
       <c r="S32">
-        <v>0.0004197960146951412</v>
+        <v>0.001092795133205198</v>
       </c>
       <c r="T32">
-        <v>0.0004197960146951413</v>
+        <v>0.001092795133205198</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>2.855569666666666</v>
+        <v>1.901699333333333</v>
       </c>
       <c r="H33">
-        <v>8.566708999999999</v>
+        <v>5.705098</v>
       </c>
       <c r="I33">
-        <v>0.115179114245079</v>
+        <v>0.07558273719936258</v>
       </c>
       <c r="J33">
-        <v>0.115179114245079</v>
+        <v>0.07558273719936257</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>429.10666</v>
       </c>
       <c r="O33">
-        <v>0.2980616520156924</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="P33">
-        <v>0.2980616520156925</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="Q33">
-        <v>408.4479873535489</v>
+        <v>272.0106164169645</v>
       </c>
       <c r="R33">
-        <v>3676.03188618194</v>
+        <v>2448.09554775268</v>
       </c>
       <c r="S33">
-        <v>0.03433047706959241</v>
+        <v>0.0170405375311716</v>
       </c>
       <c r="T33">
-        <v>0.03433047706959241</v>
+        <v>0.01704053753117159</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>2.855569666666666</v>
+        <v>1.901699333333333</v>
       </c>
       <c r="H34">
-        <v>8.566708999999999</v>
+        <v>5.705098</v>
       </c>
       <c r="I34">
-        <v>0.115179114245079</v>
+        <v>0.07558273719936258</v>
       </c>
       <c r="J34">
-        <v>0.115179114245079</v>
+        <v>0.07558273719936257</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>132.804812</v>
+        <v>169.2367096666667</v>
       </c>
       <c r="N34">
-        <v>398.414436</v>
+        <v>507.7101290000001</v>
       </c>
       <c r="O34">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="P34">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="Q34">
-        <v>379.2333927345693</v>
+        <v>321.8373379486269</v>
       </c>
       <c r="R34">
-        <v>3413.100534611124</v>
+        <v>2896.536041537642</v>
       </c>
       <c r="S34">
-        <v>0.0318749600840327</v>
+        <v>0.02016201172030393</v>
       </c>
       <c r="T34">
-        <v>0.0318749600840327</v>
+        <v>0.02016201172030392</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>2.855569666666666</v>
+        <v>1.901699333333333</v>
       </c>
       <c r="H35">
-        <v>8.566708999999999</v>
+        <v>5.705098</v>
       </c>
       <c r="I35">
-        <v>0.115179114245079</v>
+        <v>0.07558273719936258</v>
       </c>
       <c r="J35">
-        <v>0.115179114245079</v>
+        <v>0.07558273719936257</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>23.00271466666667</v>
+        <v>16.15031566666667</v>
       </c>
       <c r="N35">
-        <v>69.008144</v>
+        <v>48.450947</v>
       </c>
       <c r="O35">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943506</v>
       </c>
       <c r="P35">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943505</v>
       </c>
       <c r="Q35">
-        <v>65.68585425312178</v>
+        <v>30.71304453642289</v>
       </c>
       <c r="R35">
-        <v>591.172688278096</v>
+        <v>276.417400827806</v>
       </c>
       <c r="S35">
-        <v>0.005520964193860636</v>
+        <v>0.001924067505207926</v>
       </c>
       <c r="T35">
-        <v>0.005520964193860638</v>
+        <v>0.001924067505207925</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>2.855569666666666</v>
+        <v>1.901699333333333</v>
       </c>
       <c r="H36">
-        <v>8.566708999999999</v>
+        <v>5.705098</v>
       </c>
       <c r="I36">
-        <v>0.115179114245079</v>
+        <v>0.07558273719936258</v>
       </c>
       <c r="J36">
-        <v>0.115179114245079</v>
+        <v>0.07558273719936257</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>53.58648166666666</v>
+        <v>54.744643</v>
       </c>
       <c r="N36">
-        <v>160.759445</v>
+        <v>164.233929</v>
       </c>
       <c r="O36">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="P36">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="Q36">
-        <v>153.0199315907228</v>
+        <v>104.1078510966713</v>
       </c>
       <c r="R36">
-        <v>1377.179384316505</v>
+        <v>936.970659870042</v>
       </c>
       <c r="S36">
-        <v>0.01286148399629337</v>
+        <v>0.006522001851512328</v>
       </c>
       <c r="T36">
-        <v>0.01286148399629337</v>
+        <v>0.006522001851512327</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>2.855569666666666</v>
+        <v>1.901699333333333</v>
       </c>
       <c r="H37">
-        <v>8.566708999999999</v>
+        <v>5.705098</v>
       </c>
       <c r="I37">
-        <v>0.115179114245079</v>
+        <v>0.07558273719936258</v>
       </c>
       <c r="J37">
-        <v>0.115179114245079</v>
+        <v>0.07558273719936257</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>125.707184</v>
+        <v>242.0894676666667</v>
       </c>
       <c r="N37">
-        <v>377.1215520000001</v>
+        <v>726.268403</v>
       </c>
       <c r="O37">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="P37">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="Q37">
-        <v>358.9656215124854</v>
+        <v>460.3813792687216</v>
       </c>
       <c r="R37">
-        <v>3230.690593612369</v>
+        <v>4143.432413418494</v>
       </c>
       <c r="S37">
-        <v>0.0301714328866047</v>
+        <v>0.02884132345796161</v>
       </c>
       <c r="T37">
-        <v>0.0301714328866047</v>
+        <v>0.0288413234579616</v>
       </c>
     </row>
   </sheetData>
